--- a/assignment1/chrom_10/assm1.xlsx
+++ b/assignment1/chrom_10/assm1.xlsx
@@ -15,6 +15,7 @@
     <sheet name="tomato" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="wheat" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="yeast" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="operate_sheet" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -374,11 +375,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -485,11 +490,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -596,11 +605,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -635,11 +648,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -950,11 +967,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1037,11 +1058,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1220,11 +1245,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1511,11 +1540,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>chromosome size</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1721,6 +1754,149 @@
           <t>948066</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total genome size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Number of chromosomes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Largest chromosome size and name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Smallest chromosome size and name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mean chromosome length</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ce10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>dm6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ecoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hg38</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TAIR10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tomato</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>yeast</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
